--- a/data/login.xlsx
+++ b/data/login.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="task" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="task" r:id="rId1" sheetId="1"/>
+    <sheet name="login" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>testCaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,46 @@
   </si>
   <si>
     <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:tab_home_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“我的”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“市场”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +121,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +132,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -115,16 +164,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,10 +193,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -179,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +354,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -311,13 +363,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -327,7 +379,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -336,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -345,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -355,12 +407,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -391,7 +443,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -410,7 +462,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -422,8 +474,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -431,8 +483,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -459,31 +511,34 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967294" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -512,8 +567,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967294" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/login.xlsx
+++ b/data/login.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>testCaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,15 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,7 +519,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,19 +567,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -598,19 +587,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
